--- a/task02.xlsx
+++ b/task02.xlsx
@@ -1,26 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B61DF755-A7EE-453C-AA54-DBB19CF2B408}"/>
+  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F31DB143-4F4F-47BD-9D6B-03090D428DDB}"/>
   <bookViews>
-    <workbookView xWindow="5295" yWindow="1275" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2520" yWindow="1620" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -408,6 +421,18 @@
   </si>
   <si>
     <t>puzzle5-2_post</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pre_ave</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_ave</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>general</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -496,6 +521,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -699,11 +728,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CE16"/>
+  <dimension ref="A1:CH18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CA1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="CF8" sqref="CF8"/>
+    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
+      <selection activeCell="CG19" sqref="CG19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -711,7 +739,7 @@
     <col min="1" max="89" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -961,8 +989,17 @@
       <c r="CE1" s="1" t="s">
         <v>97</v>
       </c>
+      <c r="CF1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>100</v>
+      </c>
     </row>
-    <row r="2" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44880.494434120366</v>
       </c>
@@ -1212,8 +1249,19 @@
       <c r="CE2" s="1">
         <v>90</v>
       </c>
+      <c r="CF2">
+        <f>AVERAGE(D2,F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,AB2,AF2,AJ2,AN2,AR2,AV2,AZ2,BD2,BH2,BL2,BN2,BP2,BR2,BT2,BV2,BX2,BZ2,CB2,CD2)</f>
+        <v>78.666666666666671</v>
+      </c>
+      <c r="CG2">
+        <f>AVERAGE(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,AA2,AE2,AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BM2,BO2,BQ2,BS2,BU2,BW2,BY2,CA2,CC2,CE2)</f>
+        <v>83</v>
+      </c>
+      <c r="CH2" s="1">
+        <v>65</v>
+      </c>
     </row>
-    <row r="3" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44883.489836516208</v>
       </c>
@@ -1463,8 +1511,19 @@
       <c r="CE3" s="1">
         <v>50</v>
       </c>
+      <c r="CF3">
+        <f t="shared" ref="CF3:CF16" si="0">AVERAGE(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3,BH3,BL3,BN3,BP3,BR3,BT3,BV3,BX3,BZ3,CB3,CD3)</f>
+        <v>73.166666666666671</v>
+      </c>
+      <c r="CG3">
+        <f t="shared" ref="CG3:CG16" si="1">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,AA3,AE3,AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
+        <v>69.166666666666671</v>
+      </c>
+      <c r="CH3" s="1">
+        <v>67</v>
+      </c>
     </row>
-    <row r="4" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44887.491774004629</v>
       </c>
@@ -1714,8 +1773,19 @@
       <c r="CE4" s="1">
         <v>94</v>
       </c>
+      <c r="CF4">
+        <f t="shared" si="0"/>
+        <v>91.433333333333337</v>
+      </c>
+      <c r="CG4">
+        <f t="shared" si="1"/>
+        <v>92.266666666666666</v>
+      </c>
+      <c r="CH4" s="1">
+        <v>53</v>
+      </c>
     </row>
-    <row r="5" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44887.665456770832</v>
       </c>
@@ -1965,8 +2035,19 @@
       <c r="CE5" s="1">
         <v>70</v>
       </c>
+      <c r="CF5">
+        <f t="shared" si="0"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="CG5">
+        <f t="shared" si="1"/>
+        <v>66.533333333333331</v>
+      </c>
+      <c r="CH5" s="1">
+        <v>55</v>
+      </c>
     </row>
-    <row r="6" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44890.670411030093</v>
       </c>
@@ -2216,8 +2297,19 @@
       <c r="CE6" s="1">
         <v>90</v>
       </c>
+      <c r="CF6">
+        <f t="shared" si="0"/>
+        <v>61.93333333333333</v>
+      </c>
+      <c r="CG6">
+        <f t="shared" si="1"/>
+        <v>82.86666666666666</v>
+      </c>
+      <c r="CH6" s="1">
+        <v>53</v>
+      </c>
     </row>
-    <row r="7" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44895.49035497685</v>
       </c>
@@ -2467,8 +2559,19 @@
       <c r="CE7" s="1">
         <v>50</v>
       </c>
+      <c r="CF7">
+        <f t="shared" si="0"/>
+        <v>69.666666666666671</v>
+      </c>
+      <c r="CG7">
+        <f t="shared" si="1"/>
+        <v>76.333333333333329</v>
+      </c>
+      <c r="CH7" s="1">
+        <v>38</v>
+      </c>
     </row>
-    <row r="8" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44896.661836203704</v>
       </c>
@@ -2718,8 +2821,19 @@
       <c r="CE8" s="1">
         <v>60</v>
       </c>
+      <c r="CF8">
+        <f t="shared" si="0"/>
+        <v>61.666666666666664</v>
+      </c>
+      <c r="CG8">
+        <f t="shared" si="1"/>
+        <v>66.166666666666671</v>
+      </c>
+      <c r="CH8" s="1">
+        <v>41</v>
+      </c>
     </row>
-    <row r="9" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44897.500412534719</v>
       </c>
@@ -2969,8 +3083,19 @@
       <c r="CE9" s="1">
         <v>62</v>
       </c>
+      <c r="CF9">
+        <f t="shared" si="0"/>
+        <v>71.733333333333334</v>
+      </c>
+      <c r="CG9">
+        <f t="shared" si="1"/>
+        <v>72.433333333333337</v>
+      </c>
+      <c r="CH9" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="10" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44897.643846273146</v>
       </c>
@@ -3220,8 +3345,19 @@
       <c r="CE10" s="1">
         <v>90</v>
       </c>
+      <c r="CF10">
+        <f t="shared" si="0"/>
+        <v>92.666666666666671</v>
+      </c>
+      <c r="CG10">
+        <f t="shared" si="1"/>
+        <v>93.266666666666666</v>
+      </c>
+      <c r="CH10" s="1">
+        <v>87</v>
+      </c>
     </row>
-    <row r="11" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44901.454408506943</v>
       </c>
@@ -3471,8 +3607,19 @@
       <c r="CE11" s="1">
         <v>50</v>
       </c>
+      <c r="CF11">
+        <f t="shared" si="0"/>
+        <v>80</v>
+      </c>
+      <c r="CG11">
+        <f t="shared" si="1"/>
+        <v>81</v>
+      </c>
+      <c r="CH11" s="1">
+        <v>61</v>
+      </c>
     </row>
-    <row r="12" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44903.466814756946</v>
       </c>
@@ -3722,8 +3869,19 @@
       <c r="CE12" s="1">
         <v>85</v>
       </c>
+      <c r="CF12">
+        <f t="shared" si="0"/>
+        <v>88.166666666666671</v>
+      </c>
+      <c r="CG12">
+        <f t="shared" si="1"/>
+        <v>90.1</v>
+      </c>
+      <c r="CH12" s="1">
+        <v>34</v>
+      </c>
     </row>
-    <row r="13" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44911.491386238427</v>
       </c>
@@ -3973,8 +4131,19 @@
       <c r="CE13" s="1">
         <v>50</v>
       </c>
+      <c r="CF13">
+        <f t="shared" si="0"/>
+        <v>51.666666666666664</v>
+      </c>
+      <c r="CG13">
+        <f t="shared" si="1"/>
+        <v>65</v>
+      </c>
+      <c r="CH13" s="1">
+        <v>49</v>
+      </c>
     </row>
-    <row r="14" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44911.631547708334</v>
       </c>
@@ -4224,8 +4393,19 @@
       <c r="CE14" s="1">
         <v>80</v>
       </c>
+      <c r="CF14">
+        <f t="shared" si="0"/>
+        <v>76.5</v>
+      </c>
+      <c r="CG14">
+        <f t="shared" si="1"/>
+        <v>77.333333333333329</v>
+      </c>
+      <c r="CH14" s="1">
+        <v>17</v>
+      </c>
     </row>
-    <row r="15" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44915.530848784721</v>
       </c>
@@ -4475,8 +4655,19 @@
       <c r="CE15" s="1">
         <v>75</v>
       </c>
+      <c r="CF15">
+        <f t="shared" si="0"/>
+        <v>79.7</v>
+      </c>
+      <c r="CG15">
+        <f t="shared" si="1"/>
+        <v>78.599999999999994</v>
+      </c>
+      <c r="CH15" s="1">
+        <v>67</v>
+      </c>
     </row>
-    <row r="16" spans="1:83" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44919.49607601852</v>
       </c>
@@ -4725,6 +4916,27 @@
       </c>
       <c r="CE16" s="1">
         <v>60</v>
+      </c>
+      <c r="CF16">
+        <f t="shared" si="0"/>
+        <v>64.666666666666671</v>
+      </c>
+      <c r="CG16">
+        <f t="shared" si="1"/>
+        <v>61.833333333333336</v>
+      </c>
+      <c r="CH16" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="18" spans="84:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF18">
+        <f>CORREL(CF2:CF16,CH2:CH16)</f>
+        <v>0.24708176362580184</v>
+      </c>
+      <c r="CG18">
+        <f>CORREL(CG2:CG16,CH2:CH16)</f>
+        <v>0.17278809569301343</v>
       </c>
     </row>
   </sheetData>

--- a/task02.xlsx
+++ b/task02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="31" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F31DB143-4F4F-47BD-9D6B-03090D428DDB}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6F0C84-F44E-459D-A1B9-A93971FFABB0}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="1620" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1665" yWindow="375" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -433,6 +433,10 @@
   </si>
   <si>
     <t>general</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>post_sum</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -728,18 +732,18 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CH18"/>
+  <dimension ref="A1:CJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CD1" workbookViewId="0">
-      <selection activeCell="CG19" sqref="CG19"/>
+    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
+      <selection activeCell="CI19" sqref="CI19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="89" width="18.85546875" customWidth="1"/>
+    <col min="1" max="91" width="18.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -993,13 +997,19 @@
         <v>98</v>
       </c>
       <c r="CG1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CH1" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="CH1" s="1" t="s">
+      <c r="CI1" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="2" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>44880.494434120366</v>
       </c>
@@ -1254,14 +1264,22 @@
         <v>78.666666666666671</v>
       </c>
       <c r="CG2">
+        <f>SUM(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AC2,AG2,AK2,AO2,AS2,AW2,BA2,BE2,BI2,BM2,BO2,BQ2,BS2,BU2,BW2,BY2,CA2,CC2,CE2)</f>
+        <v>2395</v>
+      </c>
+      <c r="CH2">
         <f>AVERAGE(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,AA2,AE2,AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BM2,BO2,BQ2,BS2,BU2,BW2,BY2,CA2,CC2,CE2)</f>
         <v>83</v>
       </c>
-      <c r="CH2" s="1">
+      <c r="CI2">
+        <f>SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,AB2,AF2,AJ2,AN2,AR2,AV2,AZ2,BD2,BH2,BL2,BN2,BP2,BR2,BT2,BV2,BX2,BZ2,CB2,CD2,CF2)</f>
+        <v>2358.6666666666665</v>
+      </c>
+      <c r="CJ2" s="1">
         <v>65</v>
       </c>
     </row>
-    <row r="3" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>44883.489836516208</v>
       </c>
@@ -1516,14 +1534,22 @@
         <v>73.166666666666671</v>
       </c>
       <c r="CG3">
-        <f t="shared" ref="CG3:CG16" si="1">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,AA3,AE3,AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
+        <f t="shared" ref="CG3:CG16" si="1">SUM(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,Y3,AC3,AG3,AK3,AO3,AS3,AW3,BA3,BE3,BI3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
+        <v>2065</v>
+      </c>
+      <c r="CH3">
+        <f t="shared" ref="CH3:CH16" si="2">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,AA3,AE3,AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
         <v>69.166666666666671</v>
       </c>
-      <c r="CH3" s="1">
+      <c r="CI3">
+        <f t="shared" ref="CI3:CI16" si="3">SUM(F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3,BH3,BL3,BN3,BP3,BR3,BT3,BV3,BX3,BZ3,CB3,CD3,CF3)</f>
+        <v>2173.1666666666665</v>
+      </c>
+      <c r="CJ3" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="4" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>44887.491774004629</v>
       </c>
@@ -1779,13 +1805,21 @@
       </c>
       <c r="CG4">
         <f t="shared" si="1"/>
+        <v>2783</v>
+      </c>
+      <c r="CH4">
+        <f t="shared" si="2"/>
         <v>92.266666666666666</v>
       </c>
-      <c r="CH4" s="1">
+      <c r="CI4">
+        <f t="shared" si="3"/>
+        <v>2739.4333333333334</v>
+      </c>
+      <c r="CJ4" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>44887.665456770832</v>
       </c>
@@ -2041,13 +2075,21 @@
       </c>
       <c r="CG5">
         <f t="shared" si="1"/>
+        <v>1971</v>
+      </c>
+      <c r="CH5">
+        <f t="shared" si="2"/>
         <v>66.533333333333331</v>
       </c>
-      <c r="CH5" s="1">
+      <c r="CI5">
+        <f t="shared" si="3"/>
+        <v>2026.6</v>
+      </c>
+      <c r="CJ5" s="1">
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>44890.670411030093</v>
       </c>
@@ -2303,13 +2345,21 @@
       </c>
       <c r="CG6">
         <f t="shared" si="1"/>
+        <v>2436</v>
+      </c>
+      <c r="CH6">
+        <f t="shared" si="2"/>
         <v>82.86666666666666</v>
       </c>
-      <c r="CH6" s="1">
+      <c r="CI6">
+        <f t="shared" si="3"/>
+        <v>1849.9333333333334</v>
+      </c>
+      <c r="CJ6" s="1">
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>44895.49035497685</v>
       </c>
@@ -2565,13 +2615,21 @@
       </c>
       <c r="CG7">
         <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="CH7">
+        <f t="shared" si="2"/>
         <v>76.333333333333329</v>
       </c>
-      <c r="CH7" s="1">
+      <c r="CI7">
+        <f t="shared" si="3"/>
+        <v>2069.6666666666665</v>
+      </c>
+      <c r="CJ7" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="8" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>44896.661836203704</v>
       </c>
@@ -2827,13 +2885,21 @@
       </c>
       <c r="CG8">
         <f t="shared" si="1"/>
+        <v>1875</v>
+      </c>
+      <c r="CH8">
+        <f t="shared" si="2"/>
         <v>66.166666666666671</v>
       </c>
-      <c r="CH8" s="1">
+      <c r="CI8">
+        <f t="shared" si="3"/>
+        <v>1821.6666666666667</v>
+      </c>
+      <c r="CJ8" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>44897.500412534719</v>
       </c>
@@ -3089,13 +3155,21 @@
       </c>
       <c r="CG9">
         <f t="shared" si="1"/>
+        <v>2200</v>
+      </c>
+      <c r="CH9">
+        <f t="shared" si="2"/>
         <v>72.433333333333337</v>
       </c>
-      <c r="CH9" s="1">
+      <c r="CI9">
+        <f t="shared" si="3"/>
+        <v>2133.7333333333331</v>
+      </c>
+      <c r="CJ9" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>44897.643846273146</v>
       </c>
@@ -3351,13 +3425,21 @@
       </c>
       <c r="CG10">
         <f t="shared" si="1"/>
+        <v>2758</v>
+      </c>
+      <c r="CH10">
+        <f t="shared" si="2"/>
         <v>93.266666666666666</v>
       </c>
-      <c r="CH10" s="1">
+      <c r="CI10">
+        <f t="shared" si="3"/>
+        <v>2772.6666666666665</v>
+      </c>
+      <c r="CJ10" s="1">
         <v>87</v>
       </c>
     </row>
-    <row r="11" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>44901.454408506943</v>
       </c>
@@ -3613,13 +3695,21 @@
       </c>
       <c r="CG11">
         <f t="shared" si="1"/>
+        <v>2370</v>
+      </c>
+      <c r="CH11">
+        <f t="shared" si="2"/>
         <v>81</v>
       </c>
-      <c r="CH11" s="1">
+      <c r="CI11">
+        <f t="shared" si="3"/>
+        <v>2380</v>
+      </c>
+      <c r="CJ11" s="1">
         <v>61</v>
       </c>
     </row>
-    <row r="12" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>44903.466814756946</v>
       </c>
@@ -3875,13 +3965,21 @@
       </c>
       <c r="CG12">
         <f t="shared" si="1"/>
+        <v>2708</v>
+      </c>
+      <c r="CH12">
+        <f t="shared" si="2"/>
         <v>90.1</v>
       </c>
-      <c r="CH12" s="1">
+      <c r="CI12">
+        <f t="shared" si="3"/>
+        <v>2633.1666666666665</v>
+      </c>
+      <c r="CJ12" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>44911.491386238427</v>
       </c>
@@ -4137,13 +4235,21 @@
       </c>
       <c r="CG13">
         <f t="shared" si="1"/>
-        <v>65</v>
-      </c>
-      <c r="CH13" s="1">
+        <v>1920</v>
+      </c>
+      <c r="CH13">
+        <f t="shared" si="2"/>
+        <v>65</v>
+      </c>
+      <c r="CI13">
+        <f t="shared" si="3"/>
+        <v>1561.6666666666667</v>
+      </c>
+      <c r="CJ13" s="1">
         <v>49</v>
       </c>
     </row>
-    <row r="14" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>44911.631547708334</v>
       </c>
@@ -4399,13 +4505,21 @@
       </c>
       <c r="CG14">
         <f t="shared" si="1"/>
+        <v>2305</v>
+      </c>
+      <c r="CH14">
+        <f t="shared" si="2"/>
         <v>77.333333333333329</v>
       </c>
-      <c r="CH14" s="1">
+      <c r="CI14">
+        <f t="shared" si="3"/>
+        <v>2281.5</v>
+      </c>
+      <c r="CJ14" s="1">
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>44915.530848784721</v>
       </c>
@@ -4661,13 +4775,21 @@
       </c>
       <c r="CG15">
         <f t="shared" si="1"/>
+        <v>2353</v>
+      </c>
+      <c r="CH15">
+        <f t="shared" si="2"/>
         <v>78.599999999999994</v>
       </c>
-      <c r="CH15" s="1">
+      <c r="CI15">
+        <f t="shared" si="3"/>
+        <v>2375.6999999999998</v>
+      </c>
+      <c r="CJ15" s="1">
         <v>67</v>
       </c>
     </row>
-    <row r="16" spans="1:86" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>44919.49607601852</v>
       </c>
@@ -4923,20 +5045,36 @@
       </c>
       <c r="CG16">
         <f t="shared" si="1"/>
+        <v>1845</v>
+      </c>
+      <c r="CH16">
+        <f t="shared" si="2"/>
         <v>61.833333333333336</v>
       </c>
-      <c r="CH16" s="1">
+      <c r="CI16">
+        <f t="shared" si="3"/>
+        <v>1914.6666666666667</v>
+      </c>
+      <c r="CJ16" s="1">
         <v>62</v>
       </c>
     </row>
-    <row r="18" spans="84:85" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CF18">
-        <f>CORREL(CF2:CF16,CH2:CH16)</f>
+        <f>CORREL(CF2:CF16,CJ2:CJ16)</f>
         <v>0.24708176362580184</v>
       </c>
       <c r="CG18">
-        <f>CORREL(CG2:CG16,CH2:CH16)</f>
+        <f>CORREL(CG2:CG16,CJ2:CJ16)</f>
+        <v>0.15594234487465747</v>
+      </c>
+      <c r="CH18">
+        <f>CORREL(CH2:CH16,CJ2:CJ16)</f>
         <v>0.17278809569301343</v>
+      </c>
+      <c r="CI18">
+        <f>CORREL(CI2:CI16,CJ2:CJ16)</f>
+        <v>0.24930985808393569</v>
       </c>
     </row>
   </sheetData>

--- a/task02.xlsx
+++ b/task02.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C6F0C84-F44E-459D-A1B9-A93971FFABB0}"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D8E75B-A729-4791-9D76-8800D0187A46}"/>
   <bookViews>
-    <workbookView xWindow="1665" yWindow="375" windowWidth="13410" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -735,7 +735,7 @@
   <dimension ref="A1:CJ18"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CI19" sqref="CI19"/>
+      <selection activeCell="CF19" sqref="CF19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>

--- a/task02.xlsx
+++ b/task02.xlsx
@@ -8,13 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D8E75B-A729-4791-9D76-8800D0187A46}"/>
+  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC8F8885-C197-4E8C-AF9A-5F46773A1BAD}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19650" yWindow="1725" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'フォームの回答 1'!$B$1:$B$18</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -437,6 +440,10 @@
   </si>
   <si>
     <t>post_sum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>pre_sum</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -729,13 +736,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:CJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CE1" workbookViewId="0">
-      <selection activeCell="CF19" sqref="CF19"/>
+    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
+      <selection activeCell="CI2" sqref="CI2:CI16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -997,7 +1004,7 @@
         <v>98</v>
       </c>
       <c r="CG1" s="1" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="CH1" s="1" t="s">
         <v>99</v>
@@ -1011,199 +1018,199 @@
     </row>
     <row r="2" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
-        <v>44880.494434120366</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>3</v>
+        <v>44911.491386238427</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>14</v>
       </c>
       <c r="C2" s="3">
-        <v>44880</v>
+        <v>44911</v>
       </c>
       <c r="D2" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="E2" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="F2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="G2" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="H2" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="I2" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J2" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="K2" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="L2" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="M2" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="N2" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="O2" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="P2" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="Q2" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="R2" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="S2" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="T2" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="U2" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="V2" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="W2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="X2" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Y2" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="Z2" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AA2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AB2" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="AC2" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AD2" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AE2" s="1">
         <v>60</v>
       </c>
       <c r="AF2" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AG2" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AH2" s="1">
         <v>70</v>
       </c>
       <c r="AI2" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AJ2" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AK2" s="1">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="AL2" s="1">
-        <v>65</v>
+        <v>30</v>
       </c>
       <c r="AM2" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AN2" s="1">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="AO2" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP2" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ2" s="1">
+        <v>30</v>
+      </c>
+      <c r="AR2" s="1">
         <v>40</v>
       </c>
-      <c r="AP2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AQ2" s="1">
-        <v>45</v>
-      </c>
-      <c r="AR2" s="1">
-        <v>70</v>
-      </c>
       <c r="AS2" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AT2" s="1">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AU2" s="1">
-        <v>90</v>
+        <v>40</v>
       </c>
       <c r="AV2" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AW2" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AX2" s="1">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="AY2" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="AZ2" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="BA2" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BB2" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BC2" s="1">
-        <v>85</v>
+        <v>50</v>
       </c>
       <c r="BD2" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BE2" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BF2" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BG2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BH2" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BI2" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BJ2" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BK2" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BL2" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BM2" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="BN2" s="1">
         <v>90</v>
@@ -1212,157 +1219,157 @@
         <v>80</v>
       </c>
       <c r="BP2" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BQ2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BR2" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BS2" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="BT2" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="BU2" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="BV2" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="BW2" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BX2" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BY2" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BZ2" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="CA2" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="CB2" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="CC2" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="CD2" s="1">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="CE2" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="CF2">
-        <f>AVERAGE(D2,F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,AB2,AF2,AJ2,AN2,AR2,AV2,AZ2,BD2,BH2,BL2,BN2,BP2,BR2,BT2,BV2,BX2,BZ2,CB2,CD2)</f>
-        <v>78.666666666666671</v>
+        <f>AVERAGE(D2,F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AV2,AZ2,BD2,BH2,BL2,BP2,BT2,BX2,CB2)</f>
+        <v>48.333333333333336</v>
       </c>
       <c r="CG2">
-        <f>SUM(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AC2,AG2,AK2,AO2,AS2,AW2,BA2,BE2,BI2,BM2,BO2,BQ2,BS2,BU2,BW2,BY2,CA2,CC2,CE2)</f>
-        <v>2395</v>
+        <f>SUM(D2,F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,Z2,AB2,AD2,AF2,AH2,AJ2,AL2,AN2,AP2,AR2,AV2,AZ2,BD2,BH2,BL2,BP2,BT2,BX2,CB2)</f>
+        <v>1450</v>
       </c>
       <c r="CH2">
-        <f>AVERAGE(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,AA2,AE2,AI2,AM2,AQ2,AU2,AY2,BC2,BG2,BK2,BM2,BO2,BQ2,BS2,BU2,BW2,BY2,CA2,CC2,CE2)</f>
-        <v>83</v>
+        <f>AVERAGE(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,AI2,AK2,AM2,AO2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,)</f>
+        <v>60</v>
       </c>
       <c r="CI2">
-        <f>SUM(F2,H2,J2,L2,N2,P2,R2,T2,V2,X2,AB2,AF2,AJ2,AN2,AR2,AV2,AZ2,BD2,BH2,BL2,BN2,BP2,BR2,BT2,BV2,BX2,BZ2,CB2,CD2,CF2)</f>
-        <v>2358.6666666666665</v>
+        <f>SUM(E2,G2,I2,K2,M2,O2,Q2,S2,U2,W2,Y2,AA2,AC2,AE2,AG2,AI2,AK2,AM2,AO2,AQ2,AU2,AY2,BC2,BG2,BK2,BO2,BS2,BW2,CA2,CE2,)</f>
+        <v>1860</v>
       </c>
       <c r="CJ2" s="1">
-        <v>65</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
-        <v>44883.489836516208</v>
+        <v>44911.631547708334</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3">
-        <v>44883</v>
+        <v>44911</v>
       </c>
       <c r="D3" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="E3" s="1">
         <v>95</v>
       </c>
       <c r="F3" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G3" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="H3" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I3" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="J3" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K3" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="L3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="M3" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="N3" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="O3" s="1">
         <v>95</v>
       </c>
       <c r="P3" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="Q3" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="R3" s="1">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="S3" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T3" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="U3" s="1">
+        <v>80</v>
+      </c>
+      <c r="V3" s="1">
+        <v>80</v>
+      </c>
+      <c r="W3" s="1">
         <v>85</v>
       </c>
-      <c r="V3" s="1">
-        <v>85</v>
-      </c>
-      <c r="W3" s="1">
-        <v>80</v>
-      </c>
       <c r="X3" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="Y3" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="Z3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AA3" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AB3" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="AC3" s="1">
         <v>70</v>
@@ -1374,446 +1381,446 @@
         <v>70</v>
       </c>
       <c r="AF3" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG3" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AH3" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI3" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AJ3" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AK3" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AL3" s="1">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="AM3" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AN3" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AO3" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AP3" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AQ3" s="1">
-        <v>55</v>
+        <v>35</v>
       </c>
       <c r="AR3" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AS3" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AT3" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="AU3" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AV3" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="AW3" s="1">
         <v>70</v>
       </c>
       <c r="AX3" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AY3" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AZ3" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BA3" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BB3" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BC3" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BD3" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BE3" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BF3" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BG3" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BH3" s="1">
-        <v>65</v>
+        <v>75</v>
       </c>
       <c r="BI3" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BJ3" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BK3" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BL3" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="BM3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BN3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BO3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BP3" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BQ3" s="1">
         <v>70</v>
       </c>
       <c r="BR3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BS3" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BT3" s="1">
         <v>75</v>
       </c>
       <c r="BU3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BV3" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BW3" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="BX3" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BY3" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="BZ3" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="CA3" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="CB3" s="1">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="CC3" s="1">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="CD3" s="1">
-        <v>55</v>
+        <v>80</v>
       </c>
       <c r="CE3" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="CF3">
-        <f t="shared" ref="CF3:CF16" si="0">AVERAGE(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3,BH3,BL3,BN3,BP3,BR3,BT3,BV3,BX3,BZ3,CB3,CD3)</f>
-        <v>73.166666666666671</v>
+        <f t="shared" ref="CF3:CF6" si="0">AVERAGE(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,Z3,AB3,AD3,AF3,AH3,AJ3,AL3,AN3,AP3,AR3,AV3,AZ3,BD3,BH3,BL3,BP3,BT3,BX3,CB3)</f>
+        <v>74</v>
       </c>
       <c r="CG3">
-        <f t="shared" ref="CG3:CG16" si="1">SUM(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,Y3,AC3,AG3,AK3,AO3,AS3,AW3,BA3,BE3,BI3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
-        <v>2065</v>
+        <f t="shared" ref="CG3:CG6" si="1">SUM(D3,F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,Z3,AB3,AD3,AF3,AH3,AJ3,AL3,AN3,AP3,AR3,AV3,AZ3,BD3,BH3,BL3,BP3,BT3,BX3,CB3)</f>
+        <v>2220</v>
       </c>
       <c r="CH3">
-        <f t="shared" ref="CH3:CH16" si="2">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,AA3,AE3,AI3,AM3,AQ3,AU3,AY3,BC3,BG3,BK3,BM3,BO3,BQ3,BS3,BU3,BW3,BY3,CA3,CC3,CE3)</f>
-        <v>69.166666666666671</v>
+        <f t="shared" ref="CH3:CI6" si="2">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,Y3,AA3,AC3,AE3,AG3,AI3,AK3,AM3,AO3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,)</f>
+        <v>72.258064516129039</v>
       </c>
       <c r="CI3">
-        <f t="shared" ref="CI3:CI16" si="3">SUM(F3,H3,J3,L3,N3,P3,R3,T3,V3,X3,AB3,AF3,AJ3,AN3,AR3,AV3,AZ3,BD3,BH3,BL3,BN3,BP3,BR3,BT3,BV3,BX3,BZ3,CB3,CD3,CF3)</f>
-        <v>2173.1666666666665</v>
+        <f t="shared" ref="CI3:CI6" si="3">SUM(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,Y3,AA3,AC3,AE3,AG3,AI3,AK3,AM3,AO3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,)</f>
+        <v>2240</v>
       </c>
       <c r="CJ3" s="1">
-        <v>67</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
-        <v>44887.491774004629</v>
+        <v>44890.670411030093</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C4" s="3">
-        <v>44887</v>
+        <v>44890</v>
       </c>
       <c r="D4" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="E4" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="F4" s="1">
+        <v>60</v>
+      </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
+      <c r="H4" s="1">
+        <v>70</v>
+      </c>
+      <c r="I4" s="1">
+        <v>68</v>
+      </c>
+      <c r="J4" s="1">
+        <v>50</v>
+      </c>
+      <c r="K4" s="1">
+        <v>70</v>
+      </c>
+      <c r="L4" s="1">
+        <v>30</v>
+      </c>
+      <c r="M4" s="1">
+        <v>40</v>
+      </c>
+      <c r="N4" s="1">
+        <v>90</v>
+      </c>
+      <c r="O4" s="1">
+        <v>100</v>
+      </c>
+      <c r="P4" s="1">
+        <v>75</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>60</v>
+      </c>
+      <c r="R4" s="1">
+        <v>60</v>
+      </c>
+      <c r="S4" s="1">
+        <v>100</v>
+      </c>
+      <c r="T4" s="1">
+        <v>55</v>
+      </c>
+      <c r="U4" s="1">
+        <v>100</v>
+      </c>
+      <c r="V4" s="1">
+        <v>35</v>
+      </c>
+      <c r="W4" s="1">
+        <v>65</v>
+      </c>
+      <c r="X4" s="1">
+        <v>30</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>75</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>35</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>55</v>
+      </c>
+      <c r="AD4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>60</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>55</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>50</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>70</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>90</v>
+      </c>
+      <c r="AL4" s="1">
+        <v>60</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>70</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>25</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>30</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>55</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>40</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>80</v>
+      </c>
+      <c r="AT4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AU4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AV4" s="1">
+        <v>78</v>
+      </c>
+      <c r="AW4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AX4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AY4" s="1">
+        <v>100</v>
+      </c>
+      <c r="AZ4" s="1">
+        <v>60</v>
+      </c>
+      <c r="BA4" s="1">
+        <v>90</v>
+      </c>
+      <c r="BB4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC4" s="1">
+        <v>90</v>
+      </c>
+      <c r="BD4" s="1">
+        <v>70</v>
+      </c>
+      <c r="BE4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BF4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BG4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BH4" s="1">
+        <v>60</v>
+      </c>
+      <c r="BI4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BJ4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BK4" s="1">
+        <v>90</v>
+      </c>
+      <c r="BL4" s="1">
+        <v>75</v>
+      </c>
+      <c r="BM4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BN4" s="1">
+        <v>90</v>
+      </c>
+      <c r="BO4" s="1">
+        <v>80</v>
+      </c>
+      <c r="BP4" s="1">
+        <v>50</v>
+      </c>
+      <c r="BQ4" s="1">
+        <v>90</v>
+      </c>
+      <c r="BR4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BS4" s="1">
+        <v>90</v>
+      </c>
+      <c r="BT4" s="1">
+        <v>75</v>
+      </c>
+      <c r="BU4" s="1">
         <v>85</v>
       </c>
-      <c r="G4" s="1">
-        <v>90</v>
-      </c>
-      <c r="H4" s="1">
+      <c r="BV4" s="1">
+        <v>100</v>
+      </c>
+      <c r="BW4" s="1">
+        <v>90</v>
+      </c>
+      <c r="BX4" s="1">
+        <v>60</v>
+      </c>
+      <c r="BY4" s="1">
         <v>85</v>
       </c>
-      <c r="I4" s="1">
-        <v>90</v>
-      </c>
-      <c r="J4" s="1">
-        <v>85</v>
-      </c>
-      <c r="K4" s="1">
-        <v>93</v>
-      </c>
-      <c r="L4" s="1">
-        <v>86</v>
-      </c>
-      <c r="M4" s="1">
-        <v>83</v>
-      </c>
-      <c r="N4" s="1">
-        <v>98</v>
-      </c>
-      <c r="O4" s="1">
-        <v>99</v>
-      </c>
-      <c r="P4" s="1">
-        <v>95</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>98</v>
-      </c>
-      <c r="R4" s="1">
-        <v>95</v>
-      </c>
-      <c r="S4" s="1">
-        <v>96</v>
-      </c>
-      <c r="T4" s="1">
-        <v>93</v>
-      </c>
-      <c r="U4" s="1">
-        <v>96</v>
-      </c>
-      <c r="V4" s="1">
-        <v>90</v>
-      </c>
-      <c r="W4" s="1">
-        <v>95</v>
-      </c>
-      <c r="X4" s="1">
-        <v>90</v>
-      </c>
-      <c r="Y4" s="1">
-        <v>95</v>
-      </c>
-      <c r="Z4" s="1">
-        <v>95</v>
-      </c>
-      <c r="AA4" s="1">
-        <v>97</v>
-      </c>
-      <c r="AB4" s="1">
-        <v>93</v>
-      </c>
-      <c r="AC4" s="1">
-        <v>96</v>
-      </c>
-      <c r="AD4" s="1">
-        <v>95</v>
-      </c>
-      <c r="AE4" s="1">
-        <v>97</v>
-      </c>
-      <c r="AF4" s="1">
-        <v>92</v>
-      </c>
-      <c r="AG4" s="1">
-        <v>95</v>
-      </c>
-      <c r="AH4" s="1">
-        <v>94</v>
-      </c>
-      <c r="AI4" s="1">
-        <v>96</v>
-      </c>
-      <c r="AJ4" s="1">
-        <v>90</v>
-      </c>
-      <c r="AK4" s="1">
-        <v>95</v>
-      </c>
-      <c r="AL4" s="1">
-        <v>93</v>
-      </c>
-      <c r="AM4" s="1">
-        <v>97</v>
-      </c>
-      <c r="AN4" s="1">
-        <v>88</v>
-      </c>
-      <c r="AO4" s="1">
-        <v>93</v>
-      </c>
-      <c r="AP4" s="1">
-        <v>90</v>
-      </c>
-      <c r="AQ4" s="1">
-        <v>71</v>
-      </c>
-      <c r="AR4" s="1">
-        <v>95</v>
-      </c>
-      <c r="AS4" s="1">
-        <v>83</v>
-      </c>
-      <c r="AT4" s="1">
-        <v>88</v>
-      </c>
-      <c r="AU4" s="1">
-        <v>86</v>
-      </c>
-      <c r="AV4" s="1">
-        <v>86</v>
-      </c>
-      <c r="AW4" s="1">
-        <v>88</v>
-      </c>
-      <c r="AX4" s="1">
-        <v>73</v>
-      </c>
-      <c r="AY4" s="1">
-        <v>80</v>
-      </c>
-      <c r="AZ4" s="1">
-        <v>85</v>
-      </c>
-      <c r="BA4" s="1">
-        <v>87</v>
-      </c>
-      <c r="BB4" s="1">
-        <v>92</v>
-      </c>
-      <c r="BC4" s="1">
-        <v>90</v>
-      </c>
-      <c r="BD4" s="1">
-        <v>88</v>
-      </c>
-      <c r="BE4" s="1">
-        <v>92</v>
-      </c>
-      <c r="BF4" s="1">
-        <v>94</v>
-      </c>
-      <c r="BG4" s="1">
-        <v>93</v>
-      </c>
-      <c r="BH4" s="1">
-        <v>88</v>
-      </c>
-      <c r="BI4" s="1">
-        <v>93</v>
-      </c>
-      <c r="BJ4" s="1">
-        <v>95</v>
-      </c>
-      <c r="BK4" s="1">
-        <v>95</v>
-      </c>
-      <c r="BL4" s="1">
-        <v>94</v>
-      </c>
-      <c r="BM4" s="1">
-        <v>95</v>
-      </c>
-      <c r="BN4" s="1">
-        <v>98</v>
-      </c>
-      <c r="BO4" s="1">
-        <v>97</v>
-      </c>
-      <c r="BP4" s="1">
-        <v>92</v>
-      </c>
-      <c r="BQ4" s="1">
-        <v>95</v>
-      </c>
-      <c r="BR4" s="1">
-        <v>98</v>
-      </c>
-      <c r="BS4" s="1">
-        <v>97</v>
-      </c>
-      <c r="BT4" s="1">
-        <v>97</v>
-      </c>
-      <c r="BU4" s="1">
-        <v>97</v>
-      </c>
-      <c r="BV4" s="1">
-        <v>98</v>
-      </c>
-      <c r="BW4" s="1">
-        <v>98</v>
-      </c>
-      <c r="BX4" s="1">
-        <v>90</v>
-      </c>
-      <c r="BY4" s="1">
-        <v>92</v>
-      </c>
       <c r="BZ4" s="1">
-        <v>94</v>
+        <v>80</v>
       </c>
       <c r="CA4" s="1">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="CB4" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="CC4" s="1">
-        <v>93</v>
+        <v>100</v>
       </c>
       <c r="CD4" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="CE4" s="1">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="CF4">
         <f t="shared" si="0"/>
-        <v>91.433333333333337</v>
+        <v>54.1</v>
       </c>
       <c r="CG4">
         <f t="shared" si="1"/>
-        <v>2783</v>
+        <v>1623</v>
       </c>
       <c r="CH4">
         <f t="shared" si="2"/>
-        <v>92.266666666666666</v>
+        <v>75.516129032258064</v>
       </c>
       <c r="CI4">
         <f t="shared" si="3"/>
-        <v>2739.4333333333334</v>
+        <v>2341</v>
       </c>
       <c r="CJ4" s="1">
         <v>53</v>
@@ -1821,19 +1828,19 @@
     </row>
     <row r="5" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
-        <v>44887.665456770832</v>
+        <v>44895.49035497685</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C5" s="3">
-        <v>44887</v>
+        <v>44895</v>
       </c>
       <c r="D5" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E5" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="F5" s="1">
         <v>90</v>
@@ -1842,22 +1849,22 @@
         <v>100</v>
       </c>
       <c r="H5" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I5" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="J5" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K5" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="L5" s="1">
         <v>50</v>
       </c>
       <c r="M5" s="1">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="N5" s="1">
         <v>100</v>
@@ -1866,538 +1873,538 @@
         <v>100</v>
       </c>
       <c r="P5" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="R5" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S5" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T5" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="U5" s="1">
-        <v>66</v>
+        <v>100</v>
       </c>
       <c r="V5" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="W5" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="X5" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Y5" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="Z5" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="1">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="AB5" s="1">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AC5" s="1">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AD5" s="1">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="1">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="AF5" s="1">
+        <v>80</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AH5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>100</v>
+      </c>
+      <c r="AJ5" s="1">
+        <v>70</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AL5" s="1">
+        <v>90</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>100</v>
+      </c>
+      <c r="AN5" s="1">
+        <v>80</v>
+      </c>
+      <c r="AO5" s="1">
         <v>40</v>
       </c>
-      <c r="AG5" s="1">
-        <v>60</v>
-      </c>
-      <c r="AH5" s="1">
-        <v>55</v>
-      </c>
-      <c r="AI5" s="1">
-        <v>60</v>
-      </c>
-      <c r="AJ5" s="1">
+      <c r="AP5" s="1">
         <v>40</v>
       </c>
-      <c r="AK5" s="1">
-        <v>45</v>
-      </c>
-      <c r="AL5" s="1">
-        <v>45</v>
-      </c>
-      <c r="AM5" s="1">
-        <v>50</v>
-      </c>
-      <c r="AN5" s="1">
-        <v>20</v>
-      </c>
-      <c r="AO5" s="1">
+      <c r="AQ5" s="1">
+        <v>60</v>
+      </c>
+      <c r="AR5" s="1">
+        <v>80</v>
+      </c>
+      <c r="AS5" s="1">
         <v>30</v>
       </c>
-      <c r="AP5" s="1">
-        <v>30</v>
-      </c>
-      <c r="AQ5" s="1">
-        <v>35</v>
-      </c>
-      <c r="AR5" s="1">
-        <v>80</v>
-      </c>
-      <c r="AS5" s="1">
-        <v>60</v>
-      </c>
       <c r="AT5" s="1">
         <v>70</v>
       </c>
       <c r="AU5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AV5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AW5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AX5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AY5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AZ5" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BA5" s="1">
         <v>60</v>
       </c>
       <c r="BB5" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BC5" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BD5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BE5" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BF5" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="BG5" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="BH5" s="1">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="BI5" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BJ5" s="1">
         <v>70</v>
       </c>
       <c r="BK5" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BL5" s="1">
         <v>70</v>
       </c>
       <c r="BM5" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BN5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BO5" s="1">
         <v>70</v>
       </c>
       <c r="BP5" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="BQ5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BR5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BS5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BT5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BU5" s="1">
         <v>70</v>
       </c>
       <c r="BV5" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BW5" s="1">
         <v>70</v>
       </c>
       <c r="BX5" s="1">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="BY5" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BZ5" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="CA5" s="1">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="CB5" s="1">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="CC5" s="1">
         <v>70</v>
       </c>
       <c r="CD5" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="CE5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="CF5">
         <f t="shared" si="0"/>
-        <v>68.599999999999994</v>
+        <v>74</v>
       </c>
       <c r="CG5">
         <f t="shared" si="1"/>
-        <v>1971</v>
+        <v>2220</v>
       </c>
       <c r="CH5">
         <f t="shared" si="2"/>
-        <v>66.533333333333331</v>
+        <v>75.806451612903231</v>
       </c>
       <c r="CI5">
         <f t="shared" si="3"/>
-        <v>2026.6</v>
+        <v>2350</v>
       </c>
       <c r="CJ5" s="1">
-        <v>55</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
-        <v>44890.670411030093</v>
+        <v>44883.489836516208</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="3">
-        <v>44890</v>
+        <v>44883</v>
       </c>
       <c r="D6" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="E6" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="F6" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="G6" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H6" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="I6" s="1">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="J6" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K6" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="L6" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M6" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="N6" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="O6" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="P6" s="1">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="Q6" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="R6" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="S6" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T6" s="1">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="U6" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V6" s="1">
-        <v>35</v>
+        <v>85</v>
       </c>
       <c r="W6" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="X6" s="1">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="Y6" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z6" s="1">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AA6" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="AB6" s="1">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AC6" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="AD6" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AE6" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AF6" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AG6" s="1">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AH6" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AI6" s="1">
         <v>70</v>
       </c>
       <c r="AJ6" s="1">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AK6" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AL6" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM6" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AN6" s="1">
-        <v>25</v>
+        <v>65</v>
       </c>
       <c r="AO6" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AP6" s="1">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="AQ6" s="1">
         <v>55</v>
       </c>
       <c r="AR6" s="1">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AS6" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AT6" s="1">
-        <v>100</v>
+        <v>45</v>
       </c>
       <c r="AU6" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="AV6" s="1">
-        <v>78</v>
+        <v>60</v>
       </c>
       <c r="AW6" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AX6" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AY6" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AZ6" s="1">
         <v>60</v>
       </c>
       <c r="BA6" s="1">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="BB6" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BC6" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BD6" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BE6" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BF6" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BG6" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BH6" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BI6" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BJ6" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BK6" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BL6" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BM6" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BN6" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BO6" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BP6" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BQ6" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BR6" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BS6" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BT6" s="1">
         <v>75</v>
       </c>
       <c r="BU6" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="BV6" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BW6" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BX6" s="1">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="BY6" s="1">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="BZ6" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="CA6" s="1">
-        <v>78</v>
+        <v>50</v>
       </c>
       <c r="CB6" s="1">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="CC6" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="CD6" s="1">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="CE6" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="CF6">
         <f t="shared" si="0"/>
-        <v>61.93333333333333</v>
+        <v>73.333333333333329</v>
       </c>
       <c r="CG6">
         <f t="shared" si="1"/>
-        <v>2436</v>
+        <v>2200</v>
       </c>
       <c r="CH6">
         <f t="shared" si="2"/>
-        <v>82.86666666666666</v>
+        <v>67.41935483870968</v>
       </c>
       <c r="CI6">
         <f t="shared" si="3"/>
-        <v>1849.9333333333334</v>
+        <v>2090</v>
       </c>
       <c r="CJ6" s="1">
-        <v>53</v>
+        <v>67</v>
       </c>
     </row>
-    <row r="7" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:88" ht="12.75" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
-        <v>44895.49035497685</v>
+        <v>44903.466814756946</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C7" s="3">
-        <v>44895</v>
+        <v>44903</v>
       </c>
       <c r="D7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="F7" s="1">
         <v>90</v>
       </c>
       <c r="G7" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="H7" s="1">
         <v>80</v>
       </c>
       <c r="I7" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="J7" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="K7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="L7" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="M7" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="N7" s="1">
         <v>100</v>
@@ -2406,497 +2413,497 @@
         <v>100</v>
       </c>
       <c r="P7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="Q7" s="1">
         <v>100</v>
       </c>
       <c r="R7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="S7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="T7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="U7" s="1">
         <v>100</v>
       </c>
       <c r="V7" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="W7" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="X7" s="1">
         <v>70</v>
       </c>
       <c r="Y7" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="Z7" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AA7" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="AB7" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AC7" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AD7" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="AE7" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AF7" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AG7" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AH7" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AI7" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="AJ7" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK7" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AL7" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AM7" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AN7" s="1">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AO7" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AP7" s="1">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="AQ7" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AR7" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="AS7" s="1">
-        <v>30</v>
+        <v>85</v>
       </c>
       <c r="AT7" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="AU7" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AV7" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AW7" s="1">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="AX7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AY7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AZ7" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="BA7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="BB7" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="BC7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="BD7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="BE7" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BF7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="BG7" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BH7" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="BI7" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BJ7" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BK7" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="BL7" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="BM7" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="BN7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BO7" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BP7" s="1">
-        <v>40</v>
+        <v>95</v>
       </c>
       <c r="BQ7" s="1">
-        <v>50</v>
+        <v>95</v>
       </c>
       <c r="BR7" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BS7" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="BT7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="BU7" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="BV7" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="BW7" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BX7" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="BY7" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BZ7" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="CA7" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="CB7" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="CC7" s="1">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="CD7" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="CE7" s="1">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="CF7">
-        <f t="shared" si="0"/>
-        <v>69.666666666666671</v>
+        <f t="shared" ref="CF2:CF16" si="4">AVERAGE(D7,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7,BH7,BL7,BN7,BP7,BR7,BT7,BV7,BX7,BZ7,CB7,CD7)</f>
+        <v>88.166666666666671</v>
       </c>
       <c r="CG7">
-        <f t="shared" si="1"/>
-        <v>2200</v>
+        <f t="shared" ref="CG2:CG16" si="5">SUM(E7,G7,I7,K7,M7,O7,Q7,S7,U7,W7,Y7,AC7,AG7,AK7,AO7,AS7,AW7,BA7,BE7,BI7,BM7,BO7,BQ7,BS7,BU7,BW7,BY7,CA7,CC7,CE7)</f>
+        <v>2708</v>
       </c>
       <c r="CH7">
-        <f t="shared" si="2"/>
-        <v>76.333333333333329</v>
+        <f t="shared" ref="CH2:CH16" si="6">AVERAGE(E7,G7,I7,K7,M7,O7,Q7,S7,U7,W7,AA7,AE7,AI7,AM7,AQ7,AU7,AY7,BC7,BG7,BK7,BM7,BO7,BQ7,BS7,BU7,BW7,BY7,CA7,CC7,CE7)</f>
+        <v>90.1</v>
       </c>
       <c r="CI7">
-        <f t="shared" si="3"/>
-        <v>2069.6666666666665</v>
+        <f t="shared" ref="CI2:CI16" si="7">SUM(F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7,BH7,BL7,BN7,BP7,BR7,BT7,BV7,BX7,BZ7,CB7,CD7,CF7)</f>
+        <v>2633.1666666666665</v>
       </c>
       <c r="CJ7" s="1">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
-        <v>44896.661836203704</v>
+        <v>44897.643846273146</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C8" s="3">
-        <v>44896</v>
+        <v>44897</v>
       </c>
       <c r="D8" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="E8" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="F8" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="G8" s="1">
         <v>100</v>
       </c>
       <c r="H8" s="1">
+        <v>90</v>
+      </c>
+      <c r="I8" s="1">
+        <v>95</v>
+      </c>
+      <c r="J8" s="1">
+        <v>90</v>
+      </c>
+      <c r="K8" s="1">
+        <v>98</v>
+      </c>
+      <c r="L8" s="1">
+        <v>90</v>
+      </c>
+      <c r="M8" s="1">
+        <v>80</v>
+      </c>
+      <c r="N8" s="1">
+        <v>100</v>
+      </c>
+      <c r="O8" s="1">
+        <v>95</v>
+      </c>
+      <c r="P8" s="1">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>100</v>
+      </c>
+      <c r="R8" s="1">
+        <v>100</v>
+      </c>
+      <c r="S8" s="1">
+        <v>100</v>
+      </c>
+      <c r="T8" s="1">
+        <v>100</v>
+      </c>
+      <c r="U8" s="1">
+        <v>100</v>
+      </c>
+      <c r="V8" s="1">
+        <v>100</v>
+      </c>
+      <c r="W8" s="1">
+        <v>100</v>
+      </c>
+      <c r="X8" s="1">
+        <v>80</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>80</v>
+      </c>
+      <c r="Z8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>90</v>
+      </c>
+      <c r="AB8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AC8" s="1">
         <v>85</v>
       </c>
-      <c r="I8" s="1">
-        <v>80</v>
-      </c>
-      <c r="J8" s="1">
-        <v>80</v>
-      </c>
-      <c r="K8" s="1">
-        <v>80</v>
-      </c>
-      <c r="L8" s="1">
-        <v>70</v>
-      </c>
-      <c r="M8" s="1">
-        <v>80</v>
-      </c>
-      <c r="N8" s="1">
-        <v>100</v>
-      </c>
-      <c r="O8" s="1">
-        <v>95</v>
-      </c>
-      <c r="P8" s="1">
-        <v>90</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>90</v>
-      </c>
-      <c r="R8" s="1">
-        <v>90</v>
-      </c>
-      <c r="S8" s="1">
-        <v>95</v>
-      </c>
-      <c r="T8" s="1">
-        <v>90</v>
-      </c>
-      <c r="U8" s="1">
-        <v>80</v>
-      </c>
-      <c r="V8" s="1">
+      <c r="AD8" s="1">
+        <v>90</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>90</v>
+      </c>
+      <c r="AF8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AH8" s="1">
+        <v>90</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>90</v>
+      </c>
+      <c r="AJ8" s="1">
+        <v>75</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AL8" s="1">
         <v>85</v>
       </c>
-      <c r="W8" s="1">
+      <c r="AM8" s="1">
+        <v>80</v>
+      </c>
+      <c r="AN8" s="1">
+        <v>70</v>
+      </c>
+      <c r="AO8" s="1">
+        <v>70</v>
+      </c>
+      <c r="AP8" s="1">
+        <v>75</v>
+      </c>
+      <c r="AQ8" s="1">
+        <v>75</v>
+      </c>
+      <c r="AR8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AS8" s="1">
+        <v>95</v>
+      </c>
+      <c r="AT8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AU8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AV8" s="1">
+        <v>95</v>
+      </c>
+      <c r="AW8" s="1">
+        <v>90</v>
+      </c>
+      <c r="AX8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AY8" s="1">
+        <v>100</v>
+      </c>
+      <c r="AZ8" s="1">
+        <v>90</v>
+      </c>
+      <c r="BA8" s="1">
+        <v>90</v>
+      </c>
+      <c r="BB8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BC8" s="1">
+        <v>90</v>
+      </c>
+      <c r="BD8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BE8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BF8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BG8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BH8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BI8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BJ8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BK8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BL8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BM8" s="1">
+        <v>90</v>
+      </c>
+      <c r="BN8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BO8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BP8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BQ8" s="1">
+        <v>90</v>
+      </c>
+      <c r="BR8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BS8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BT8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BU8" s="1">
+        <v>95</v>
+      </c>
+      <c r="BV8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BW8" s="1">
+        <v>90</v>
+      </c>
+      <c r="BX8" s="1">
+        <v>80</v>
+      </c>
+      <c r="BY8" s="1">
+        <v>100</v>
+      </c>
+      <c r="BZ8" s="1">
+        <v>100</v>
+      </c>
+      <c r="CA8" s="1">
+        <v>80</v>
+      </c>
+      <c r="CB8" s="1">
         <v>85</v>
       </c>
-      <c r="X8" s="1">
-        <v>15</v>
-      </c>
-      <c r="Y8" s="1">
-        <v>70</v>
-      </c>
-      <c r="Z8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AA8" s="1">
-        <v>75</v>
-      </c>
-      <c r="AB8" s="1">
-        <v>30</v>
-      </c>
-      <c r="AC8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AD8" s="1">
-        <v>30</v>
-      </c>
-      <c r="AE8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AF8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AG8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AH8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AI8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AJ8" s="1">
-        <v>35</v>
-      </c>
-      <c r="AK8" s="1">
-        <v>50</v>
-      </c>
-      <c r="AL8" s="1">
-        <v>45</v>
-      </c>
-      <c r="AM8" s="1">
-        <v>50</v>
-      </c>
-      <c r="AN8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AO8" s="1">
-        <v>45</v>
-      </c>
-      <c r="AP8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AQ8" s="1">
-        <v>45</v>
-      </c>
-      <c r="AR8" s="1">
-        <v>30</v>
-      </c>
-      <c r="AS8" s="1">
-        <v>20</v>
-      </c>
-      <c r="AT8" s="1">
-        <v>50</v>
-      </c>
-      <c r="AU8" s="1">
-        <v>60</v>
-      </c>
-      <c r="AV8" s="1">
-        <v>60</v>
-      </c>
-      <c r="AW8" s="1">
-        <v>40</v>
-      </c>
-      <c r="AX8" s="1">
-        <v>70</v>
-      </c>
-      <c r="AY8" s="1">
-        <v>70</v>
-      </c>
-      <c r="AZ8" s="1">
-        <v>65</v>
-      </c>
-      <c r="BA8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BB8" s="1">
-        <v>60</v>
-      </c>
-      <c r="BC8" s="1">
-        <v>65</v>
-      </c>
-      <c r="BD8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BE8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BF8" s="1">
-        <v>60</v>
-      </c>
-      <c r="BG8" s="1">
-        <v>70</v>
-      </c>
-      <c r="BH8" s="1">
-        <v>65</v>
-      </c>
-      <c r="BI8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BJ8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BK8" s="1">
-        <v>55</v>
-      </c>
-      <c r="BL8" s="1">
-        <v>60</v>
-      </c>
-      <c r="BM8" s="1">
-        <v>70</v>
-      </c>
-      <c r="BN8" s="1">
-        <v>80</v>
-      </c>
-      <c r="BO8" s="1">
-        <v>85</v>
-      </c>
-      <c r="BP8" s="1">
-        <v>70</v>
-      </c>
-      <c r="BQ8" s="1">
-        <v>40</v>
-      </c>
-      <c r="BR8" s="1">
-        <v>40</v>
-      </c>
-      <c r="BS8" s="1">
-        <v>45</v>
-      </c>
-      <c r="BT8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BU8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BV8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BW8" s="1">
-        <v>50</v>
-      </c>
-      <c r="BX8" s="1">
-        <v>45</v>
-      </c>
-      <c r="BY8" s="1">
-        <v>45</v>
-      </c>
-      <c r="BZ8" s="1">
-        <v>50</v>
-      </c>
-      <c r="CA8" s="1">
-        <v>50</v>
-      </c>
-      <c r="CB8" s="1">
-        <v>50</v>
-      </c>
       <c r="CC8" s="1">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="CD8" s="1">
-        <v>55</v>
+        <v>100</v>
       </c>
       <c r="CE8" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="CF8">
-        <f t="shared" si="0"/>
-        <v>61.666666666666664</v>
+        <f t="shared" ref="CF8:CF16" si="8">AVERAGE(D8,F8,H8,J8,L8,N8,P8,R8,T8,V8,X8,Z8,AB8,AD8,AF8,AH8,AJ8,AL8,AN8,AP8,AR8,AV8,AZ8,BD8,BH8,BL8,BP8,BT8,BX8,CB8)</f>
+        <v>90</v>
       </c>
       <c r="CG8">
-        <f t="shared" si="1"/>
-        <v>1875</v>
+        <f t="shared" ref="CG8:CG16" si="9">SUM(D8,F8,H8,J8,L8,N8,P8,R8,T8,V8,X8,Z8,AB8,AD8,AF8,AH8,AJ8,AL8,AN8,AP8,AR8,AV8,AZ8,BD8,BH8,BL8,BP8,BT8,BX8,CB8)</f>
+        <v>2700</v>
       </c>
       <c r="CH8">
-        <f t="shared" si="2"/>
-        <v>66.166666666666671</v>
+        <f t="shared" ref="CH8:CH16" si="10">AVERAGE(E8,G8,I8,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8,AG8,AI8,AK8,AM8,AO8,AQ8,AU8,AY8,BC8,BG8,BK8,BO8,BS8,BW8,CA8,CE8,)</f>
+        <v>87.677419354838705</v>
       </c>
       <c r="CI8">
-        <f t="shared" si="3"/>
-        <v>1821.6666666666667</v>
+        <f t="shared" ref="CI8:CI16" si="11">SUM(E8,G8,I8,K8,M8,O8,Q8,S8,U8,W8,Y8,AA8,AC8,AE8,AG8,AI8,AK8,AM8,AO8,AQ8,AU8,AY8,BC8,BG8,BK8,BO8,BS8,BW8,CA8,CE8,)</f>
+        <v>2718</v>
       </c>
       <c r="CJ8" s="1">
-        <v>41</v>
+        <v>87</v>
       </c>
     </row>
     <row r="9" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
@@ -3150,20 +3157,20 @@
         <v>62</v>
       </c>
       <c r="CF9">
-        <f t="shared" si="0"/>
-        <v>71.733333333333334</v>
+        <f t="shared" si="8"/>
+        <v>72.3</v>
       </c>
       <c r="CG9">
-        <f t="shared" si="1"/>
-        <v>2200</v>
+        <f t="shared" si="9"/>
+        <v>2169</v>
       </c>
       <c r="CH9">
-        <f t="shared" si="2"/>
-        <v>72.433333333333337</v>
+        <f t="shared" si="10"/>
+        <v>71.290322580645167</v>
       </c>
       <c r="CI9">
-        <f t="shared" si="3"/>
-        <v>2133.7333333333331</v>
+        <f t="shared" si="11"/>
+        <v>2210</v>
       </c>
       <c r="CJ9" s="1">
         <v>34</v>
@@ -3171,22 +3178,22 @@
     </row>
     <row r="10" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
-        <v>44897.643846273146</v>
+        <v>44887.665456770832</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C10" s="3">
-        <v>44897</v>
+        <v>44887</v>
       </c>
       <c r="D10" s="1">
         <v>100</v>
       </c>
       <c r="E10" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F10" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G10" s="1">
         <v>100</v>
@@ -3195,559 +3202,559 @@
         <v>90</v>
       </c>
       <c r="I10" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="J10" s="1">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="K10" s="1">
-        <v>98</v>
+        <v>60</v>
       </c>
       <c r="L10" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="M10" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="N10" s="1">
         <v>100</v>
       </c>
       <c r="O10" s="1">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="P10" s="1">
         <v>100</v>
       </c>
       <c r="Q10" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="R10" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="S10" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="T10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="U10" s="1">
-        <v>100</v>
+        <v>66</v>
       </c>
       <c r="V10" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="W10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="X10" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="Y10" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="Z10" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA10" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AB10" s="1">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="AC10" s="1">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="AD10" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="AE10" s="1">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AF10" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="AG10" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AH10" s="1">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="AI10" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="AJ10" s="1">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="AK10" s="1">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="AL10" s="1">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="AM10" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="AN10" s="1">
-        <v>70</v>
+        <v>20</v>
       </c>
       <c r="AO10" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AP10" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AQ10" s="1">
-        <v>75</v>
+        <v>35</v>
       </c>
       <c r="AR10" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="AS10" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="AT10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AU10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AV10" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="AW10" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="AX10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AY10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="AZ10" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BA10" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BB10" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BC10" s="1">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="BD10" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BE10" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BF10" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BG10" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="BH10" s="1">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="BI10" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="BJ10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BK10" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BL10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BM10" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="BN10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BO10" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BP10" s="1">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="BQ10" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BR10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BS10" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BT10" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BU10" s="1">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="BV10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="BW10" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="BX10" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="BY10" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BZ10" s="1">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="CA10" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="CB10" s="1">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="CC10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="CD10" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="CE10" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="CF10">
-        <f t="shared" si="0"/>
-        <v>92.666666666666671</v>
+        <f t="shared" si="8"/>
+        <v>65.933333333333337</v>
       </c>
       <c r="CG10">
-        <f t="shared" si="1"/>
-        <v>2758</v>
+        <f t="shared" si="9"/>
+        <v>1978</v>
       </c>
       <c r="CH10">
-        <f t="shared" si="2"/>
-        <v>93.266666666666666</v>
+        <f t="shared" si="10"/>
+        <v>62.612903225806448</v>
       </c>
       <c r="CI10">
-        <f t="shared" si="3"/>
-        <v>2772.6666666666665</v>
+        <f t="shared" si="11"/>
+        <v>1941</v>
       </c>
       <c r="CJ10" s="1">
-        <v>87</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
-        <v>44901.454408506943</v>
+        <v>44887.491774004629</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="C11" s="3">
-        <v>44901</v>
+        <v>44887</v>
       </c>
       <c r="D11" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E11" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F11" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="G11" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="H11" s="1">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="I11" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="J11" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="K11" s="1">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="L11" s="1">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="M11" s="1">
-        <v>70</v>
+        <v>83</v>
       </c>
       <c r="N11" s="1">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="O11" s="1">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="P11" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="Q11" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="R11" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="S11" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="T11" s="1">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="U11" s="1">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="V11" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="W11" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="X11" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="Y11" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="Z11" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AA11" s="1">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="AB11" s="1">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="AC11" s="1">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="AD11" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AE11" s="1">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AF11" s="1">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="AG11" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AH11" s="1">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="AI11" s="1">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="AJ11" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AK11" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="AL11" s="1">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="AM11" s="1">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="AN11" s="1">
-        <v>60</v>
+        <v>88</v>
       </c>
       <c r="AO11" s="1">
-        <v>50</v>
+        <v>93</v>
       </c>
       <c r="AP11" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="AQ11" s="1">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="AR11" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="AS11" s="1">
-        <v>100</v>
+        <v>83</v>
       </c>
       <c r="AT11" s="1">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="AU11" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AV11" s="1">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="AW11" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="AX11" s="1">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="AY11" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AZ11" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BA11" s="1">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="BB11" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BC11" s="1">
         <v>90</v>
       </c>
       <c r="BD11" s="1">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="BE11" s="1">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="BF11" s="1">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="BG11" s="1">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="BH11" s="1">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="BI11" s="1">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="BJ11" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="BK11" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BL11" s="1">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="BM11" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BN11" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="BO11" s="1">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="BP11" s="1">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="BQ11" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="BR11" s="1">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="BS11" s="1">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="BT11" s="1">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="BU11" s="1">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="BV11" s="1">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="BW11" s="1">
-        <v>70</v>
+        <v>98</v>
       </c>
       <c r="BX11" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BY11" s="1">
-        <v>70</v>
+        <v>92</v>
       </c>
       <c r="BZ11" s="1">
-        <v>60</v>
+        <v>94</v>
       </c>
       <c r="CA11" s="1">
-        <v>50</v>
+        <v>88</v>
       </c>
       <c r="CB11" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="CC11" s="1">
-        <v>70</v>
+        <v>93</v>
       </c>
       <c r="CD11" s="1">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="CE11" s="1">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="CF11">
-        <f t="shared" si="0"/>
-        <v>80</v>
+        <f t="shared" si="8"/>
+        <v>90.9</v>
       </c>
       <c r="CG11">
-        <f t="shared" si="1"/>
-        <v>2370</v>
+        <f t="shared" si="9"/>
+        <v>2727</v>
       </c>
       <c r="CH11">
-        <f t="shared" si="2"/>
-        <v>81</v>
+        <f t="shared" si="10"/>
+        <v>89.354838709677423</v>
       </c>
       <c r="CI11">
-        <f t="shared" si="3"/>
-        <v>2380</v>
+        <f t="shared" si="11"/>
+        <v>2770</v>
       </c>
       <c r="CJ11" s="1">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
-        <v>44903.466814756946</v>
+        <v>44919.49607601852</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3">
-        <v>44903</v>
+        <v>44919</v>
       </c>
       <c r="D12" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="E12" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F12" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="G12" s="1">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H12" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="I12" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="J12" s="1">
-        <v>75</v>
+        <v>100</v>
       </c>
       <c r="K12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="L12" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="M12" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="N12" s="1">
         <v>100</v>
@@ -3765,319 +3772,319 @@
         <v>100</v>
       </c>
       <c r="S12" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="T12" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="U12" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="V12" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="W12" s="1">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="X12" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="Y12" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="Z12" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AA12" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AB12" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AC12" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AD12" s="1">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="AE12" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AF12" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AG12" s="1">
         <v>70</v>
       </c>
       <c r="AH12" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI12" s="1">
         <v>60</v>
       </c>
       <c r="AJ12" s="1">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="AK12" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AL12" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="AM12" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AN12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AO12" s="1">
+        <v>20</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>10</v>
+      </c>
+      <c r="AQ12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AR12" s="1">
+        <v>50</v>
+      </c>
+      <c r="AS12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AT12" s="1">
+        <v>30</v>
+      </c>
+      <c r="AU12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AV12" s="1">
+        <v>35</v>
+      </c>
+      <c r="AW12" s="1">
+        <v>40</v>
+      </c>
+      <c r="AX12" s="1">
+        <v>50</v>
+      </c>
+      <c r="AY12" s="1">
+        <v>45</v>
+      </c>
+      <c r="AZ12" s="1">
+        <v>40</v>
+      </c>
+      <c r="BA12" s="1">
+        <v>50</v>
+      </c>
+      <c r="BB12" s="1">
+        <v>60</v>
+      </c>
+      <c r="BC12" s="1">
+        <v>50</v>
+      </c>
+      <c r="BD12" s="1">
         <v>55</v>
       </c>
-      <c r="AO12" s="1">
-        <v>70</v>
-      </c>
-      <c r="AP12" s="1">
-        <v>75</v>
-      </c>
-      <c r="AQ12" s="1">
-        <v>70</v>
-      </c>
-      <c r="AR12" s="1">
-        <v>100</v>
-      </c>
-      <c r="AS12" s="1">
-        <v>85</v>
-      </c>
-      <c r="AT12" s="1">
-        <v>90</v>
-      </c>
-      <c r="AU12" s="1">
-        <v>90</v>
-      </c>
-      <c r="AV12" s="1">
-        <v>90</v>
-      </c>
-      <c r="AW12" s="1">
-        <v>95</v>
-      </c>
-      <c r="AX12" s="1">
-        <v>95</v>
-      </c>
-      <c r="AY12" s="1">
-        <v>95</v>
-      </c>
-      <c r="AZ12" s="1">
-        <v>90</v>
-      </c>
-      <c r="BA12" s="1">
-        <v>95</v>
-      </c>
-      <c r="BB12" s="1">
-        <v>95</v>
-      </c>
-      <c r="BC12" s="1">
-        <v>95</v>
-      </c>
-      <c r="BD12" s="1">
-        <v>95</v>
-      </c>
       <c r="BE12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BF12" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="BG12" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="BH12" s="1">
-        <v>85</v>
+        <v>45</v>
       </c>
       <c r="BI12" s="1">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="BJ12" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BK12" s="1">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="BL12" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="BM12" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="BN12" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BO12" s="1">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="BP12" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="BQ12" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="BR12" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="BS12" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="BT12" s="1">
-        <v>95</v>
+        <v>60</v>
       </c>
       <c r="BU12" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="BV12" s="1">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="BW12" s="1">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="BX12" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BY12" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="BZ12" s="1">
-        <v>95</v>
+        <v>50</v>
       </c>
       <c r="CA12" s="1">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="CB12" s="1">
-        <v>85</v>
+        <v>40</v>
       </c>
       <c r="CC12" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="CD12" s="1">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="CE12" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="CF12">
-        <f t="shared" si="0"/>
-        <v>88.166666666666671</v>
+        <f t="shared" si="8"/>
+        <v>64.166666666666671</v>
       </c>
       <c r="CG12">
-        <f t="shared" si="1"/>
-        <v>2708</v>
+        <f t="shared" si="9"/>
+        <v>1925</v>
       </c>
       <c r="CH12">
-        <f t="shared" si="2"/>
-        <v>90.1</v>
+        <f t="shared" si="10"/>
+        <v>59.838709677419352</v>
       </c>
       <c r="CI12">
-        <f t="shared" si="3"/>
-        <v>2633.1666666666665</v>
+        <f t="shared" si="11"/>
+        <v>1855</v>
       </c>
       <c r="CJ12" s="1">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
-        <v>44911.491386238427</v>
+        <v>44901.454408506943</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C13" s="3">
-        <v>44911</v>
+        <v>44901</v>
       </c>
       <c r="D13" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="E13" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="F13" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="G13" s="1">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="H13" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="I13" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="J13" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="K13" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="L13" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="M13" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="N13" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="O13" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="P13" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="R13" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="S13" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="T13" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="U13" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="V13" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="W13" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="X13" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="Y13" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="Z13" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AA13" s="1">
         <v>70</v>
       </c>
       <c r="AB13" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AC13" s="1">
         <v>60</v>
       </c>
       <c r="AD13" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="AE13" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="AF13" s="1">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="AG13" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AH13" s="1">
         <v>70</v>
@@ -4086,115 +4093,115 @@
         <v>60</v>
       </c>
       <c r="AJ13" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AK13" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AL13" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AM13" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AN13" s="1">
-        <v>20</v>
+        <v>60</v>
       </c>
       <c r="AO13" s="1">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="AP13" s="1">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AQ13" s="1">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="AR13" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AS13" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AT13" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AU13" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="AV13" s="1">
-        <v>30</v>
+        <v>90</v>
       </c>
       <c r="AW13" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AX13" s="1">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="AY13" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="AZ13" s="1">
-        <v>30</v>
+        <v>80</v>
       </c>
       <c r="BA13" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="BB13" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BC13" s="1">
-        <v>50</v>
+        <v>90</v>
       </c>
       <c r="BD13" s="1">
-        <v>40</v>
+        <v>90</v>
       </c>
       <c r="BE13" s="1">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="BF13" s="1">
-        <v>80</v>
+        <v>100</v>
       </c>
       <c r="BG13" s="1">
-        <v>70</v>
+        <v>100</v>
       </c>
       <c r="BH13" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="BI13" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BJ13" s="1">
         <v>80</v>
       </c>
       <c r="BK13" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BL13" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BM13" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BN13" s="1">
         <v>90</v>
       </c>
       <c r="BO13" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BP13" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="BQ13" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BR13" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BS13" s="1">
         <v>80</v>
       </c>
       <c r="BT13" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BU13" s="1">
         <v>80</v>
@@ -4203,19 +4210,19 @@
         <v>70</v>
       </c>
       <c r="BW13" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BX13" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BY13" s="1">
         <v>70</v>
       </c>
       <c r="BZ13" s="1">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="CA13" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="CB13" s="1">
         <v>60</v>
@@ -4224,334 +4231,334 @@
         <v>70</v>
       </c>
       <c r="CD13" s="1">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="CE13" s="1">
         <v>50</v>
       </c>
       <c r="CF13">
-        <f t="shared" si="0"/>
-        <v>51.666666666666664</v>
+        <f t="shared" si="8"/>
+        <v>79.333333333333329</v>
       </c>
       <c r="CG13">
-        <f t="shared" si="1"/>
-        <v>1920</v>
+        <f t="shared" si="9"/>
+        <v>2380</v>
       </c>
       <c r="CH13">
-        <f t="shared" si="2"/>
-        <v>65</v>
+        <f t="shared" si="10"/>
+        <v>75.161290322580641</v>
       </c>
       <c r="CI13">
-        <f t="shared" si="3"/>
-        <v>1561.6666666666667</v>
+        <f t="shared" si="11"/>
+        <v>2330</v>
       </c>
       <c r="CJ13" s="1">
-        <v>49</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
-        <v>44911.631547708334</v>
+        <v>44896.661836203704</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C14" s="3">
-        <v>44911</v>
+        <v>44896</v>
       </c>
       <c r="D14" s="1">
         <v>90</v>
       </c>
       <c r="E14" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="F14" s="1">
         <v>90</v>
       </c>
       <c r="G14" s="1">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="H14" s="1">
         <v>85</v>
       </c>
       <c r="I14" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="J14" s="1">
+        <v>80</v>
+      </c>
+      <c r="K14" s="1">
+        <v>80</v>
+      </c>
+      <c r="L14" s="1">
+        <v>70</v>
+      </c>
+      <c r="M14" s="1">
+        <v>80</v>
+      </c>
+      <c r="N14" s="1">
+        <v>100</v>
+      </c>
+      <c r="O14" s="1">
+        <v>95</v>
+      </c>
+      <c r="P14" s="1">
+        <v>90</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>90</v>
+      </c>
+      <c r="R14" s="1">
+        <v>90</v>
+      </c>
+      <c r="S14" s="1">
+        <v>95</v>
+      </c>
+      <c r="T14" s="1">
+        <v>90</v>
+      </c>
+      <c r="U14" s="1">
+        <v>80</v>
+      </c>
+      <c r="V14" s="1">
         <v>85</v>
-      </c>
-      <c r="K14" s="1">
-        <v>85</v>
-      </c>
-      <c r="L14" s="1">
-        <v>80</v>
-      </c>
-      <c r="M14" s="1">
-        <v>70</v>
-      </c>
-      <c r="N14" s="1">
-        <v>90</v>
-      </c>
-      <c r="O14" s="1">
-        <v>95</v>
-      </c>
-      <c r="P14" s="1">
-        <v>90</v>
-      </c>
-      <c r="Q14" s="1">
-        <v>85</v>
-      </c>
-      <c r="R14" s="1">
-        <v>85</v>
-      </c>
-      <c r="S14" s="1">
-        <v>90</v>
-      </c>
-      <c r="T14" s="1">
-        <v>80</v>
-      </c>
-      <c r="U14" s="1">
-        <v>80</v>
-      </c>
-      <c r="V14" s="1">
-        <v>80</v>
       </c>
       <c r="W14" s="1">
         <v>85</v>
       </c>
       <c r="X14" s="1">
-        <v>60</v>
+        <v>15</v>
       </c>
       <c r="Y14" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Z14" s="1">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="AA14" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="AB14" s="1">
-        <v>75</v>
+        <v>30</v>
       </c>
       <c r="AC14" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AD14" s="1">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="AE14" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AF14" s="1">
-        <v>65</v>
+        <v>40</v>
       </c>
       <c r="AG14" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AH14" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AI14" s="1">
-        <v>65</v>
+        <v>35</v>
       </c>
       <c r="AJ14" s="1">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="AK14" s="1">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AL14" s="1">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="AM14" s="1">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AN14" s="1">
         <v>40</v>
       </c>
       <c r="AO14" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP14" s="1">
         <v>40</v>
       </c>
       <c r="AQ14" s="1">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AR14" s="1">
-        <v>80</v>
+        <v>30</v>
       </c>
       <c r="AS14" s="1">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="AT14" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="AU14" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AV14" s="1">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="AW14" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="AX14" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AY14" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AZ14" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BA14" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BB14" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="BC14" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BD14" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="BE14" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="BF14" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BG14" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BH14" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="BI14" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="BJ14" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="BK14" s="1">
-        <v>75</v>
+        <v>55</v>
       </c>
       <c r="BL14" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="BM14" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="BN14" s="1">
         <v>80</v>
       </c>
       <c r="BO14" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BP14" s="1">
         <v>70</v>
       </c>
       <c r="BQ14" s="1">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="BR14" s="1">
-        <v>80</v>
+        <v>40</v>
       </c>
       <c r="BS14" s="1">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="BT14" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="BU14" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="BV14" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="BW14" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="BX14" s="1">
-        <v>70</v>
+        <v>45</v>
       </c>
       <c r="BY14" s="1">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="BZ14" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="CA14" s="1">
-        <v>75</v>
+        <v>50</v>
       </c>
       <c r="CB14" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="CC14" s="1">
-        <v>80</v>
+        <v>50</v>
       </c>
       <c r="CD14" s="1">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="CE14" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="CF14">
-        <f t="shared" si="0"/>
-        <v>76.5</v>
+        <f t="shared" si="8"/>
+        <v>58.333333333333336</v>
       </c>
       <c r="CG14">
-        <f t="shared" si="1"/>
-        <v>2305</v>
+        <f t="shared" si="9"/>
+        <v>1750</v>
       </c>
       <c r="CH14">
-        <f t="shared" si="2"/>
-        <v>77.333333333333329</v>
+        <f t="shared" si="10"/>
+        <v>63.70967741935484</v>
       </c>
       <c r="CI14">
-        <f t="shared" si="3"/>
-        <v>2281.5</v>
+        <f t="shared" si="11"/>
+        <v>1975</v>
       </c>
       <c r="CJ14" s="1">
-        <v>17</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
-        <v>44915.530848784721</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>16</v>
+        <v>44880.494434120366</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>3</v>
       </c>
       <c r="C15" s="3">
-        <v>44915</v>
+        <v>44880</v>
       </c>
       <c r="D15" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E15" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="F15" s="1">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="G15" s="1">
         <v>95</v>
       </c>
       <c r="H15" s="1">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="I15" s="1">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J15" s="1">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="L15" s="1">
         <v>70</v>
@@ -4560,16 +4567,16 @@
         <v>70</v>
       </c>
       <c r="N15" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="O15" s="1">
         <v>100</v>
       </c>
       <c r="P15" s="1">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="Q15" s="1">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="R15" s="1">
         <v>95</v>
@@ -4584,58 +4591,58 @@
         <v>95</v>
       </c>
       <c r="V15" s="1">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="W15" s="1">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="X15" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y15" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="Z15" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AA15" s="1">
         <v>80</v>
       </c>
       <c r="AB15" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AC15" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AD15" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AE15" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AF15" s="1">
-        <v>80</v>
+        <v>65</v>
       </c>
       <c r="AG15" s="1">
-        <v>85</v>
+        <v>60</v>
       </c>
       <c r="AH15" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AI15" s="1">
         <v>80</v>
       </c>
       <c r="AJ15" s="1">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AK15" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="AL15" s="1">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AM15" s="1">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="AN15" s="1">
         <v>50</v>
@@ -4644,34 +4651,34 @@
         <v>40</v>
       </c>
       <c r="AP15" s="1">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AQ15" s="1">
         <v>45</v>
       </c>
       <c r="AR15" s="1">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="AS15" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="AT15" s="1">
-        <v>70</v>
+        <v>95</v>
       </c>
       <c r="AU15" s="1">
-        <v>65</v>
+        <v>90</v>
       </c>
       <c r="AV15" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AW15" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AX15" s="1">
-        <v>75</v>
+        <v>95</v>
       </c>
       <c r="AY15" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="AZ15" s="1">
         <v>75</v>
@@ -4680,43 +4687,43 @@
         <v>70</v>
       </c>
       <c r="BB15" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BC15" s="1">
-        <v>65</v>
+        <v>85</v>
       </c>
       <c r="BD15" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BE15" s="1">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="BF15" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BG15" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BH15" s="1">
         <v>70</v>
       </c>
       <c r="BI15" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BJ15" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BK15" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="BL15" s="1">
         <v>80</v>
       </c>
       <c r="BM15" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="BN15" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="BO15" s="1">
         <v>80</v>
@@ -4725,359 +4732,382 @@
         <v>70</v>
       </c>
       <c r="BQ15" s="1">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="BR15" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="BS15" s="1">
-        <v>70</v>
+        <v>90</v>
       </c>
       <c r="BT15" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="BU15" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="BV15" s="1">
-        <v>70</v>
+        <v>85</v>
       </c>
       <c r="BW15" s="1">
         <v>75</v>
       </c>
       <c r="BX15" s="1">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="BY15" s="1">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="BZ15" s="1">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="CA15" s="1">
-        <v>75</v>
+        <v>85</v>
       </c>
       <c r="CB15" s="1">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="CC15" s="1">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="CD15" s="1">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="CE15" s="1">
-        <v>75</v>
+        <v>90</v>
       </c>
       <c r="CF15">
-        <f t="shared" si="0"/>
-        <v>79.7</v>
+        <f t="shared" si="8"/>
+        <v>74.333333333333329</v>
       </c>
       <c r="CG15">
-        <f t="shared" si="1"/>
-        <v>2353</v>
+        <f t="shared" si="9"/>
+        <v>2230</v>
       </c>
       <c r="CH15">
-        <f t="shared" si="2"/>
-        <v>78.599999999999994</v>
+        <f t="shared" si="10"/>
+        <v>76.612903225806448</v>
       </c>
       <c r="CI15">
-        <f t="shared" si="3"/>
-        <v>2375.6999999999998</v>
+        <f t="shared" si="11"/>
+        <v>2375</v>
       </c>
       <c r="CJ15" s="1">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="16" spans="1:88" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
-        <v>44919.49607601852</v>
+        <v>44915.530848784721</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="3">
-        <v>44919</v>
+        <v>44915</v>
       </c>
       <c r="D16" s="1">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E16" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="F16" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="G16" s="1">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H16" s="1">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="I16" s="1">
-        <v>60</v>
+        <v>85</v>
       </c>
       <c r="J16" s="1">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="K16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="L16" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="M16" s="1">
+        <v>70</v>
+      </c>
+      <c r="N16" s="1">
+        <v>98</v>
+      </c>
+      <c r="O16" s="1">
+        <v>100</v>
+      </c>
+      <c r="P16" s="1">
+        <v>98</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>90</v>
+      </c>
+      <c r="R16" s="1">
+        <v>95</v>
+      </c>
+      <c r="S16" s="1">
+        <v>95</v>
+      </c>
+      <c r="T16" s="1">
+        <v>90</v>
+      </c>
+      <c r="U16" s="1">
+        <v>95</v>
+      </c>
+      <c r="V16" s="1">
+        <v>95</v>
+      </c>
+      <c r="W16" s="1">
+        <v>98</v>
+      </c>
+      <c r="X16" s="1">
+        <v>75</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>80</v>
+      </c>
+      <c r="Z16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AB16" s="1">
+        <v>75</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>70</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>75</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AF16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>85</v>
+      </c>
+      <c r="AH16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AJ16" s="1">
+        <v>70</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>80</v>
+      </c>
+      <c r="AL16" s="1">
+        <v>75</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>65</v>
+      </c>
+      <c r="AN16" s="1">
+        <v>50</v>
+      </c>
+      <c r="AO16" s="1">
         <v>40</v>
       </c>
-      <c r="N16" s="1">
-        <v>100</v>
-      </c>
-      <c r="O16" s="1">
-        <v>100</v>
-      </c>
-      <c r="P16" s="1">
-        <v>100</v>
-      </c>
-      <c r="Q16" s="1">
-        <v>100</v>
-      </c>
-      <c r="R16" s="1">
-        <v>100</v>
-      </c>
-      <c r="S16" s="1">
-        <v>90</v>
-      </c>
-      <c r="T16" s="1">
-        <v>80</v>
-      </c>
-      <c r="U16" s="1">
-        <v>80</v>
-      </c>
-      <c r="V16" s="1">
-        <v>80</v>
-      </c>
-      <c r="W16" s="1">
-        <v>70</v>
-      </c>
-      <c r="X16" s="1">
-        <v>50</v>
-      </c>
-      <c r="Y16" s="1">
-        <v>60</v>
-      </c>
-      <c r="Z16" s="1">
-        <v>60</v>
-      </c>
-      <c r="AA16" s="1">
-        <v>60</v>
-      </c>
-      <c r="AB16" s="1">
-        <v>70</v>
-      </c>
-      <c r="AC16" s="1">
-        <v>70</v>
-      </c>
-      <c r="AD16" s="1">
-        <v>70</v>
-      </c>
-      <c r="AE16" s="1">
-        <v>70</v>
-      </c>
-      <c r="AF16" s="1">
-        <v>65</v>
-      </c>
-      <c r="AG16" s="1">
-        <v>70</v>
-      </c>
-      <c r="AH16" s="1">
-        <v>70</v>
-      </c>
-      <c r="AI16" s="1">
-        <v>60</v>
-      </c>
-      <c r="AJ16" s="1">
+      <c r="AP16" s="1">
+        <v>40</v>
+      </c>
+      <c r="AQ16" s="1">
         <v>45</v>
       </c>
-      <c r="AK16" s="1">
-        <v>50</v>
-      </c>
-      <c r="AL16" s="1">
-        <v>50</v>
-      </c>
-      <c r="AM16" s="1">
-        <v>40</v>
-      </c>
-      <c r="AN16" s="1">
-        <v>30</v>
-      </c>
-      <c r="AO16" s="1">
-        <v>20</v>
-      </c>
-      <c r="AP16" s="1">
-        <v>10</v>
-      </c>
-      <c r="AQ16" s="1">
-        <v>40</v>
-      </c>
       <c r="AR16" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="AS16" s="1">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AT16" s="1">
-        <v>30</v>
+        <v>70</v>
       </c>
       <c r="AU16" s="1">
-        <v>40</v>
+        <v>65</v>
       </c>
       <c r="AV16" s="1">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="AW16" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="AX16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="AY16" s="1">
-        <v>45</v>
+        <v>80</v>
       </c>
       <c r="AZ16" s="1">
-        <v>40</v>
+        <v>75</v>
       </c>
       <c r="BA16" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BB16" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BC16" s="1">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="BD16" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BE16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BF16" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="BG16" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BH16" s="1">
-        <v>45</v>
+        <v>70</v>
       </c>
       <c r="BI16" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BJ16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BK16" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BL16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BM16" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="BN16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BO16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BP16" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BQ16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BR16" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BS16" s="1">
-        <v>55</v>
+        <v>70</v>
       </c>
       <c r="BT16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="BU16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="BV16" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BW16" s="1">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="BX16" s="1">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="BY16" s="1">
-        <v>50</v>
+        <v>70</v>
       </c>
       <c r="BZ16" s="1">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="CA16" s="1">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="CB16" s="1">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="CC16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="CD16" s="1">
-        <v>60</v>
+        <v>80</v>
       </c>
       <c r="CE16" s="1">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="CF16">
-        <f t="shared" si="0"/>
-        <v>64.666666666666671</v>
+        <f t="shared" si="8"/>
+        <v>78.533333333333331</v>
       </c>
       <c r="CG16">
-        <f t="shared" si="1"/>
-        <v>1845</v>
+        <f t="shared" si="9"/>
+        <v>2356</v>
       </c>
       <c r="CH16">
-        <f t="shared" si="2"/>
-        <v>61.833333333333336</v>
+        <f t="shared" si="10"/>
+        <v>75.41935483870968</v>
       </c>
       <c r="CI16">
-        <f t="shared" si="3"/>
-        <v>1914.6666666666667</v>
+        <f t="shared" si="11"/>
+        <v>2338</v>
       </c>
       <c r="CJ16" s="1">
-        <v>62</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="CF18">
         <f>CORREL(CF2:CF16,CJ2:CJ16)</f>
-        <v>0.24708176362580184</v>
+        <v>0.18750533967362978</v>
       </c>
       <c r="CG18">
         <f>CORREL(CG2:CG16,CJ2:CJ16)</f>
-        <v>0.15594234487465747</v>
+        <v>0.17231892071436908</v>
       </c>
       <c r="CH18">
         <f>CORREL(CH2:CH16,CJ2:CJ16)</f>
-        <v>0.17278809569301343</v>
+        <v>9.8491752968942803E-2</v>
       </c>
       <c r="CI18">
         <f>CORREL(CI2:CI16,CJ2:CJ16)</f>
-        <v>0.24930985808393569</v>
+        <v>0.14524452672855204</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:B18" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters blank="1">
+        <filter val="imahashi"/>
+        <filter val="kawamura"/>
+        <filter val="kawasaki"/>
+        <filter val="kobayashi"/>
+        <filter val="maeda"/>
+        <filter val="nomura"/>
+        <filter val="ota"/>
+        <filter val="shigenawa"/>
+        <filter val="suzuki"/>
+        <filter val="tabata"/>
+        <filter val="tamaru"/>
+        <filter val="tamura"/>
+        <filter val="watanabe"/>
+        <filter val="yashiro"/>
+      </filters>
+    </filterColumn>
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:CJ18">
+      <sortCondition ref="B1:B18"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/task02.xlsx
+++ b/task02.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6048939b20a31529/ドキュメント/b4_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="90" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BC8F8885-C197-4E8C-AF9A-5F46773A1BAD}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{3836568F-B8F6-45CB-9CAD-1DE9F5169C49}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC844147-C09D-43D3-841D-DED38DA2B716}"/>
   <bookViews>
-    <workbookView xWindow="19650" yWindow="1725" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3510" yWindow="2625" windowWidth="17805" windowHeight="13575" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="フォームの回答 1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="105">
   <si>
     <t>タイムスタンプ</t>
   </si>
@@ -444,6 +444,14 @@
   </si>
   <si>
     <t>pre_sum</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>t</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>p</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -454,7 +462,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d/yyyy\ h:mm:ss"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -489,6 +497,13 @@
       <name val="Arial"/>
       <family val="3"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -510,13 +525,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -739,10 +755,10 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:CJ18"/>
+  <dimension ref="A1:CJ23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CG1" workbookViewId="0">
-      <selection activeCell="CI2" sqref="CI2:CI16"/>
+    <sheetView tabSelected="1" topLeftCell="CB1" workbookViewId="0">
+      <selection activeCell="CF20" sqref="CF20:CI23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1545,7 +1561,7 @@
         <v>2220</v>
       </c>
       <c r="CH3">
-        <f t="shared" ref="CH3:CI6" si="2">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,Y3,AA3,AC3,AE3,AG3,AI3,AK3,AM3,AO3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,)</f>
+        <f t="shared" ref="CH3:CH6" si="2">AVERAGE(E3,G3,I3,K3,M3,O3,Q3,S3,U3,W3,Y3,AA3,AC3,AE3,AG3,AI3,AK3,AM3,AO3,AQ3,AU3,AY3,BC3,BG3,BK3,BO3,BS3,BW3,CA3,CE3,)</f>
         <v>72.258064516129039</v>
       </c>
       <c r="CI3">
@@ -2617,19 +2633,19 @@
         <v>85</v>
       </c>
       <c r="CF7">
-        <f t="shared" ref="CF2:CF16" si="4">AVERAGE(D7,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7,BH7,BL7,BN7,BP7,BR7,BT7,BV7,BX7,BZ7,CB7,CD7)</f>
+        <f t="shared" ref="CF7" si="4">AVERAGE(D7,F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7,BH7,BL7,BN7,BP7,BR7,BT7,BV7,BX7,BZ7,CB7,CD7)</f>
         <v>88.166666666666671</v>
       </c>
       <c r="CG7">
-        <f t="shared" ref="CG2:CG16" si="5">SUM(E7,G7,I7,K7,M7,O7,Q7,S7,U7,W7,Y7,AC7,AG7,AK7,AO7,AS7,AW7,BA7,BE7,BI7,BM7,BO7,BQ7,BS7,BU7,BW7,BY7,CA7,CC7,CE7)</f>
+        <f t="shared" ref="CG7" si="5">SUM(E7,G7,I7,K7,M7,O7,Q7,S7,U7,W7,Y7,AC7,AG7,AK7,AO7,AS7,AW7,BA7,BE7,BI7,BM7,BO7,BQ7,BS7,BU7,BW7,BY7,CA7,CC7,CE7)</f>
         <v>2708</v>
       </c>
       <c r="CH7">
-        <f t="shared" ref="CH2:CH16" si="6">AVERAGE(E7,G7,I7,K7,M7,O7,Q7,S7,U7,W7,AA7,AE7,AI7,AM7,AQ7,AU7,AY7,BC7,BG7,BK7,BM7,BO7,BQ7,BS7,BU7,BW7,BY7,CA7,CC7,CE7)</f>
+        <f t="shared" ref="CH7" si="6">AVERAGE(E7,G7,I7,K7,M7,O7,Q7,S7,U7,W7,AA7,AE7,AI7,AM7,AQ7,AU7,AY7,BC7,BG7,BK7,BM7,BO7,BQ7,BS7,BU7,BW7,BY7,CA7,CC7,CE7)</f>
         <v>90.1</v>
       </c>
       <c r="CI7">
-        <f t="shared" ref="CI2:CI16" si="7">SUM(F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7,BH7,BL7,BN7,BP7,BR7,BT7,BV7,BX7,BZ7,CB7,CD7,CF7)</f>
+        <f t="shared" ref="CI7" si="7">SUM(F7,H7,J7,L7,N7,P7,R7,T7,V7,X7,AB7,AF7,AJ7,AN7,AR7,AV7,AZ7,BD7,BH7,BL7,BN7,BP7,BR7,BT7,BV7,BX7,BZ7,CB7,CD7,CF7)</f>
         <v>2633.1666666666665</v>
       </c>
       <c r="CJ7" s="1">
@@ -5082,6 +5098,70 @@
       <c r="CI18">
         <f>CORREL(CI2:CI16,CJ2:CJ16)</f>
         <v>0.14524452672855204</v>
+      </c>
+    </row>
+    <row r="20" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF20" t="s">
+        <v>103</v>
+      </c>
+      <c r="CG20" t="s">
+        <v>103</v>
+      </c>
+      <c r="CH20" t="s">
+        <v>103</v>
+      </c>
+      <c r="CI20" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="21" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF21">
+        <f>CF18*SQRT(12)/SQRT(1-CF18^2)</f>
+        <v>0.66126603986919041</v>
+      </c>
+      <c r="CG21">
+        <f>CG18*SQRT(12)/SQRT(1-CG18^2)</f>
+        <v>0.60599520530122342</v>
+      </c>
+      <c r="CH21">
+        <f>CH18*SQRT(12)/SQRT(1-CH18^2)</f>
+        <v>0.34285243462925141</v>
+      </c>
+      <c r="CI21">
+        <f>CI18*SQRT(12)/SQRT(1-CI18^2)</f>
+        <v>0.50853440572711917</v>
+      </c>
+    </row>
+    <row r="22" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CG22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CH22" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="CI22" s="6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="23" spans="84:87" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="CF23">
+        <f>TDIST(ABS(CF21),12,2)</f>
+        <v>0.52093629614478343</v>
+      </c>
+      <c r="CG23">
+        <f>TDIST(ABS(CG21),12,2)</f>
+        <v>0.55580753124399496</v>
+      </c>
+      <c r="CH23">
+        <f>TDIST(ABS(CH21),12,2)</f>
+        <v>0.73764055282653362</v>
+      </c>
+      <c r="CI23">
+        <f>TDIST(ABS(CI21),12,2)</f>
+        <v>0.6202980371558342</v>
       </c>
     </row>
   </sheetData>
